--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42900" yWindow="2980" windowWidth="26680" windowHeight="18480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Caret</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>0.8333/0.7077</t>
+  </si>
+  <si>
+    <t>0.8585/0.729</t>
+  </si>
+  <si>
+    <t>max.depth = 6, eta = 0.15, nround = 500, objective = "binary:logistic"</t>
   </si>
 </sst>
 </file>
@@ -502,8 +508,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -654,7 +664,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -710,6 +720,8 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -765,6 +777,8 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1094,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1756,6 +1770,27 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
   <si>
     <t>Caret</t>
   </si>
@@ -393,12 +393,30 @@
   <si>
     <t>max.depth = 6, eta = 0.15, nround = 500, objective = "binary:logistic"</t>
   </si>
+  <si>
+    <t>0.8536/0.8032</t>
+  </si>
+  <si>
+    <t>last 3</t>
+  </si>
+  <si>
+    <t>max.depth = 6, eta = 0.1, nround = 1400, objective = "binary:logistic"</t>
+  </si>
+  <si>
+    <t>0.8337/0.7782</t>
+  </si>
+  <si>
+    <t>0.8556/0.8038</t>
+  </si>
+  <si>
+    <t>max.depth = 6, eta = 0.13, nround = 1400 objective = "binary:logistic"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +461,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -508,7 +533,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -624,8 +649,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -663,8 +702,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -722,6 +764,13 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -779,6 +828,13 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1108,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1125,7 +1181,7 @@
     <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1170,8 +1226,11 @@
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="13">
+        <v>0.60777999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -1188,7 +1247,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
@@ -1205,7 +1264,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
@@ -1224,7 +1283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1">
+    <row r="8" spans="1:8" s="9" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
@@ -1266,7 +1325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1">
+    <row r="9" spans="1:8" s="9" customFormat="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
@@ -1285,7 +1344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="55" customHeight="1">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="55" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1294,7 +1353,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="55" customHeight="1">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="55" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1303,7 +1362,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>1</v>
@@ -1370,7 +1429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45">
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1643,8 +1702,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="53" customHeight="1"/>
-    <row r="33" spans="1:7" ht="53" customHeight="1"/>
-    <row r="34" spans="1:7">
+    <row r="33" spans="1:8" ht="53" customHeight="1"/>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -1690,7 +1749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
@@ -1709,7 +1768,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
@@ -1728,7 +1787,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>69</v>
@@ -1749,7 +1808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>69</v>
@@ -1770,7 +1829,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
         <v>69</v>
@@ -1789,6 +1848,74 @@
       </c>
       <c r="G40" s="5" t="s">
         <v>72</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.62710999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
   <si>
     <t>Caret</t>
   </si>
@@ -410,6 +410,18 @@
   </si>
   <si>
     <t>max.depth = 6, eta = 0.13, nround = 1400 objective = "binary:logistic"</t>
+  </si>
+  <si>
+    <t>family='binomial', link='logit',alpha = 0.5, # 1 lasso 0 ridge
+lambda = 1e-8, lambda_search = T nlambda =8, lambda.min.ratio = 0.1,
+strong_rules = TRUE, standardize = TRUE, intercept = TRUE, use_all_factor_levels = FALSE, 
+epsilon = 1e-4, iter.max = 100, higher_accuracy = T, disable_line_search = FALSE</t>
+  </si>
+  <si>
+    <t>0.7361/0.6472</t>
+  </si>
+  <si>
+    <t>0.7017/0.6276</t>
   </si>
 </sst>
 </file>
@@ -533,8 +545,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -706,7 +724,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -771,6 +789,9 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -835,6 +856,9 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1164,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1560,34 +1584,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75">
-      <c r="A24" s="3" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="75">
+      <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="75" hidden="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -1599,56 +1623,56 @@
         <v>22</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75" hidden="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
+    <row r="27" spans="1:8" ht="75">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:8" ht="75">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="60" hidden="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1660,14 +1684,14 @@
         <v>22</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="60" hidden="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
@@ -1679,100 +1703,118 @@
         <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" hidden="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="60">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+    <row r="32" spans="1:8" ht="60" hidden="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="5" t="s">
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="53" customHeight="1"/>
-    <row r="33" spans="1:8" ht="53" customHeight="1"/>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:8" ht="53" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="53" customHeight="1"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="D36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>6</v>
@@ -1784,16 +1826,14 @@
         <v>52</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
@@ -1814,7 +1854,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
@@ -1825,64 +1865,64 @@
       <c r="F39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>0.62710999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>6</v>
@@ -1894,7 +1934,7 @@
         <v>52</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1903,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
@@ -1915,6 +1955,27 @@
         <v>52</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="27180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>Caret</t>
   </si>
@@ -422,6 +422,21 @@
   </si>
   <si>
     <t>0.7017/0.6276</t>
+  </si>
+  <si>
+    <t>0.9393/0.8954</t>
+  </si>
+  <si>
+    <t>BL, SKE, KURT, BL_DIFF</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>max.depth = 6, eta = 0.02, nround = 1400 objective = "binary:logistic"</t>
+  </si>
+  <si>
+    <t>0.9034/0.8456</t>
   </si>
 </sst>
 </file>
@@ -545,8 +560,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -724,7 +745,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -792,6 +813,9 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -859,6 +883,9 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1188,17 +1215,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="83" style="2" bestFit="1" customWidth="1"/>
@@ -1307,34 +1334,34 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -1350,32 +1377,42 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="55" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="55" customHeight="1">
       <c r="A11" s="8"/>
@@ -1386,103 +1423,91 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="55" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:8" ht="45">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" hidden="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -1494,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" hidden="1">
@@ -1503,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -1515,72 +1540,74 @@
         <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" hidden="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="45">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="1:8" ht="45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1588,7 +1615,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>6</v>
@@ -1603,34 +1630,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="75">
-      <c r="A25" s="3" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="75">
+      <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="75" hidden="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
@@ -1642,56 +1669,56 @@
         <v>22</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75" hidden="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="75">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+    <row r="28" spans="1:8" ht="75">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="75">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:8" ht="75">
+      <c r="A30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="60" hidden="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>6</v>
@@ -1703,14 +1730,14 @@
         <v>22</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" hidden="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
@@ -1722,33 +1749,33 @@
         <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" hidden="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="60" hidden="1">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="53" customHeight="1">
+    <row r="33" spans="1:8" ht="60" hidden="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>6</v>
@@ -1760,80 +1787,80 @@
         <v>22</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="53" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="53" customHeight="1"/>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" ht="53" customHeight="1"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="12" t="s">
+      <c r="D37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>6</v>
@@ -1845,16 +1872,14 @@
         <v>52</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>6</v>
@@ -1875,7 +1900,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1886,64 +1911,64 @@
       <c r="F40" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>0.62710999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
@@ -1955,7 +1980,7 @@
         <v>52</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1964,7 +1989,7 @@
         <v>74</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>6</v>
@@ -1976,7 +2001,49 @@
         <v>52</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
   <si>
     <t>Caret</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t>0.9034/0.8456</t>
+  </si>
+  <si>
+    <t>0.7698/0.6713</t>
+  </si>
+  <si>
+    <t>Raw One hot</t>
+  </si>
+  <si>
+    <t>0.9028/0.8851</t>
+  </si>
+  <si>
+    <t>ntree=100, depth=10, mtries=8, sample.rate=0.8, nbins = 10, seed=8</t>
   </si>
 </sst>
 </file>
@@ -560,8 +572,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -745,7 +771,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -816,6 +842,13 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -886,6 +919,13 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1215,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1480,9 +1520,7 @@
     </row>
     <row r="15" spans="1:8" ht="30">
       <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1499,36 +1537,36 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45">
-      <c r="A17" s="3" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" hidden="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -1540,7 +1578,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" hidden="1">
@@ -1549,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
@@ -1561,72 +1599,74 @@
         <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" hidden="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+    <row r="21" spans="1:8" ht="45">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1634,7 +1674,7 @@
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>6</v>
@@ -1649,34 +1689,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75">
-      <c r="A26" s="3" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="75">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="75" hidden="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>6</v>
@@ -1688,56 +1728,56 @@
         <v>22</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" hidden="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+    <row r="29" spans="1:8" ht="75">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="5" t="s">
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:8" ht="75">
+      <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60" hidden="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>6</v>
@@ -1749,14 +1789,14 @@
         <v>22</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60" hidden="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
@@ -1768,33 +1808,33 @@
         <v>22</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" hidden="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60" hidden="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="53" customHeight="1">
+    <row r="34" spans="1:8" ht="60" hidden="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>6</v>
@@ -1806,101 +1846,101 @@
         <v>22</v>
       </c>
       <c r="G34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="53" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="53" customHeight="1"/>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" ht="53" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="53" customHeight="1"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -1912,16 +1952,14 @@
         <v>52</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1932,43 +1970,59 @@
       <c r="F41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="13">
-        <v>0.62710999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
@@ -1980,37 +2034,21 @@
         <v>52</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="H44" s="13">
+        <v>0.62710999999999995</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B46" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>6</v>
@@ -2022,7 +2060,7 @@
         <v>52</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2031,18 +2069,60 @@
         <v>74</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G47" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="33760" yWindow="0" windowWidth="31940" windowHeight="25540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
   <si>
     <t>Caret</t>
   </si>
@@ -449,6 +449,22 @@
   </si>
   <si>
     <t>ntree=100, depth=10, mtries=8, sample.rate=0.8, nbins = 10, seed=8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n.trees = 200, interaction.depth = 8, n.minobsinnode = 1,shrinkage = 0.25, distribution= "bernoulli", n.bins = 20,  importance = T</t>
+    </r>
+  </si>
+  <si>
+    <t>0.9072/0.8193</t>
   </si>
 </sst>
 </file>
@@ -572,8 +588,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -771,7 +791,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -849,6 +869,8 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -926,6 +948,8 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1255,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1647,45 +1671,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5" t="s">
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1693,7 +1722,7 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
@@ -1708,34 +1737,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="75">
-      <c r="A27" s="3" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75" hidden="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -1747,56 +1776,56 @@
         <v>22</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75" hidden="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="75">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+    <row r="30" spans="1:8" ht="75">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="75">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:8" ht="75">
+      <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60" hidden="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
@@ -1808,14 +1837,14 @@
         <v>22</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" hidden="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
@@ -1827,33 +1856,33 @@
         <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" hidden="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="60" hidden="1">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="53" customHeight="1">
+    <row r="35" spans="1:8" ht="60" hidden="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>6</v>
@@ -1865,101 +1894,101 @@
         <v>22</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="53" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="53" customHeight="1"/>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:8" ht="53" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="53" customHeight="1"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="D40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1971,16 +2000,14 @@
         <v>52</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3"/>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -2001,7 +2028,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
@@ -2012,64 +2039,64 @@
       <c r="F43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>0.62710999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>6</v>
@@ -2081,7 +2108,7 @@
         <v>52</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2090,7 +2117,7 @@
         <v>74</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -2102,7 +2129,7 @@
         <v>52</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2111,18 +2138,39 @@
         <v>74</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G49" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33760" yWindow="0" windowWidth="31940" windowHeight="25540" tabRatio="500"/>
+    <workbookView xWindow="33760" yWindow="0" windowWidth="31940" windowHeight="25540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Validation Consistency" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="100">
   <si>
     <t>Caret</t>
   </si>
@@ -465,6 +466,27 @@
   </si>
   <si>
     <t>0.9072/0.8193</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>validation2: 101150834,101153072,101149398</t>
+  </si>
+  <si>
+    <t>validation4: 101128387,101150348,101152275</t>
+  </si>
+  <si>
+    <t>validation4: 101149870,101150716,101153308</t>
+  </si>
+  <si>
+    <t>validation1: 101183757,101183885,101184013 (last 3)</t>
+  </si>
+  <si>
+    <t>validation3: 101093076,101093194,101093312 (first 3)</t>
+  </si>
+  <si>
+    <t>0.8441 | 0.9351 | 0.8786</t>
   </si>
 </sst>
 </file>
@@ -588,7 +610,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="159">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,8 +770,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -790,8 +826,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="159">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -871,6 +920,13 @@
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -950,6 +1006,13 @@
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,10 +1342,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2183,4 +2249,134 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33760" yWindow="0" windowWidth="31940" windowHeight="25540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28760" yWindow="3160" windowWidth="28960" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model Performance" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="111">
   <si>
     <t>Caret</t>
   </si>
@@ -486,14 +486,47 @@
     <t>validation3: 101093076,101093194,101093312 (first 3)</t>
   </si>
   <si>
-    <t>0.8441 | 0.9351 | 0.8786</t>
+    <t>max.depth = 6, eta = 0.02, nround = 1400, objective = "binary:logistic"</t>
+  </si>
+  <si>
+    <t>Try raw features</t>
+  </si>
+  <si>
+    <t>0.7311 | 0.7869 | 0.6656</t>
+  </si>
+  <si>
+    <t>0.7422 | 0.8390 | 0.7620</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Partial AVG</t>
+  </si>
+  <si>
+    <t>INVEST</t>
+  </si>
+  <si>
+    <t>1. Separate models</t>
+  </si>
+  <si>
+    <t>2. 5 validation set checking consistency</t>
+  </si>
+  <si>
+    <t>3. Subsets ensembling</t>
+  </si>
+  <si>
+    <t>Common features</t>
+  </si>
+  <si>
+    <t>All features with MEDIAN imputation replacement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -547,8 +580,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +625,30 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -610,7 +674,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -784,8 +848,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -833,6 +909,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,7 +930,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -927,6 +1017,12 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1013,6 +1109,12 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1345,10 +1447,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1553,110 +1655,122 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="55" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="30">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" hidden="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -1668,7 +1782,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="45" hidden="1">
@@ -1677,7 +1791,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>6</v>
@@ -1689,98 +1803,96 @@
         <v>22</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" hidden="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45">
+      <c r="G20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="5" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1788,7 +1900,7 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>6</v>
@@ -1803,34 +1915,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="10" t="s">
+    <row r="27" spans="1:8" ht="75">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" hidden="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -1842,56 +1954,56 @@
         <v>22</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="75" hidden="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="75">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="75">
+      <c r="A31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="75">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="75">
-      <c r="A32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="G31" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" hidden="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>6</v>
@@ -1903,14 +2015,14 @@
         <v>22</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="60" hidden="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>6</v>
@@ -1922,33 +2034,33 @@
         <v>22</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" hidden="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60" hidden="1">
+      <c r="G34" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="53" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>6</v>
@@ -1960,82 +2072,82 @@
         <v>22</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="53" customHeight="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="53" customHeight="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="5" t="s">
+    <row r="37" spans="1:8" ht="53" customHeight="1"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="53" customHeight="1"/>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
+      <c r="G39" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>6</v>
@@ -2043,18 +2155,18 @@
       <c r="E40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -2066,14 +2178,16 @@
         <v>52</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>6</v>
@@ -2094,7 +2208,7 @@
         <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
@@ -2105,64 +2219,64 @@
       <c r="F43" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>66</v>
+      <c r="G43" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="G44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0.62710999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0.62710999999999995</v>
+      <c r="G46" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A47" s="5"/>
       <c r="B47" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>6</v>
@@ -2174,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2183,7 +2297,7 @@
         <v>74</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
@@ -2195,7 +2309,7 @@
         <v>52</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2204,39 +2318,18 @@
         <v>74</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G50" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2256,120 +2349,528 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F19" sqref="F19:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="J1" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="23" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="10">
+        <v>0.84409999999999996</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.93510000000000004</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
+      <c r="J2" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="23"/>
       <c r="B3" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
+      <c r="C3" s="10">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.82850000000000001</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="23"/>
       <c r="B4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
+      <c r="C4" s="10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="23"/>
       <c r="B5" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
+      <c r="C5" s="10">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="23"/>
       <c r="B6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="10">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.89219999999999999</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="23"/>
+      <c r="B10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="23"/>
+      <c r="B11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.9163</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="23"/>
+      <c r="B20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.51539999999999997</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="23"/>
+      <c r="B21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="23"/>
+      <c r="B22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23"/>
+      <c r="B23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.4985</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="23"/>
+      <c r="B26" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="23"/>
+      <c r="B28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="23"/>
+      <c r="B29" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="I25:I29"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="H19:H23"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Model_Performance_report.xlsx
+++ b/Model_Performance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28760" yWindow="3160" windowWidth="28960" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="31040" yWindow="6500" windowWidth="28960" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model Performance" sheetId="1" r:id="rId1"/>
@@ -2352,7 +2352,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F23"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2726,9 +2726,15 @@
       <c r="B21" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="C21" s="10">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.57820000000000005</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.52510000000000001</v>
+      </c>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
       <c r="H21" s="23"/>
@@ -2740,9 +2746,15 @@
       <c r="B22" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="10">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.4929</v>
+      </c>
       <c r="F22" s="23"/>
       <c r="G22" s="24"/>
       <c r="H22" s="23"/>
@@ -2776,9 +2788,15 @@
       <c r="B25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="10">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.82279999999999998</v>
+      </c>
       <c r="F25" s="23" t="s">
         <v>110</v>
       </c>
@@ -2798,9 +2816,15 @@
       <c r="B26" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="C26" s="10">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.72809999999999997</v>
+      </c>
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
       <c r="H26" s="23"/>
@@ -2812,9 +2836,15 @@
       <c r="B27" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="10">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.81830000000000003</v>
+      </c>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
@@ -2826,9 +2856,15 @@
       <c r="B28" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="C28" s="10">
+        <v>0.70940000000000003</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.94710000000000005</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.87029999999999996</v>
+      </c>
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
       <c r="H28" s="23"/>
@@ -2840,9 +2876,15 @@
       <c r="B29" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="C29" s="10">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.90890000000000004</v>
+      </c>
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
       <c r="H29" s="23"/>
